--- a/data/processed/AR_KPI_Summary.xlsx
+++ b/data/processed/AR_KPI_Summary.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>358.1255555555555</v>
+        <v>360.7877777777778</v>
       </c>
       <c r="B2" t="n">
         <v>33.44444444444444</v>
